--- a/Stocks/AARTIIND.xlsx
+++ b/Stocks/AARTIIND.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -597,11 +597,10 @@
         <v>845</v>
       </c>
       <c r="G2">
-        <f>_xll.TA_TYPPRICE(D2,E2,F2)</f>
         <v>854.63333333333333</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +608,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +624,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +656,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +668,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -729,7 +728,6 @@
         <v>851</v>
       </c>
       <c r="G3">
-        <f>_xll.TA_TYPPRICE(D3,E3,F3)</f>
         <v>850.25</v>
       </c>
       <c r="H3" t="e">
@@ -854,7 +852,6 @@
         <v>850</v>
       </c>
       <c r="G4">
-        <f>_xll.TA_TYPPRICE(D4,E4,F4)</f>
         <v>854.2833333333333</v>
       </c>
       <c r="H4">
@@ -979,7 +976,6 @@
         <v>860</v>
       </c>
       <c r="G5">
-        <f>_xll.TA_TYPPRICE(D5,E5,F5)</f>
         <v>855.33333333333337</v>
       </c>
       <c r="H5">
@@ -1104,7 +1100,6 @@
         <v>866</v>
       </c>
       <c r="G6">
-        <f>_xll.TA_TYPPRICE(D6,E6,F6)</f>
         <v>864.33333333333337</v>
       </c>
       <c r="H6">
@@ -1229,7 +1224,6 @@
         <v>864</v>
       </c>
       <c r="G7">
-        <f>_xll.TA_TYPPRICE(D7,E7,F7)</f>
         <v>869.1</v>
       </c>
       <c r="H7">
@@ -1354,7 +1348,6 @@
         <v>866</v>
       </c>
       <c r="G8">
-        <f>_xll.TA_TYPPRICE(D8,E8,F8)</f>
         <v>866.63333333333333</v>
       </c>
       <c r="H8">
@@ -1479,7 +1472,6 @@
         <v>865</v>
       </c>
       <c r="G9">
-        <f>_xll.TA_TYPPRICE(D9,E9,F9)</f>
         <v>866.65</v>
       </c>
       <c r="H9">
@@ -1604,7 +1596,6 @@
         <v>890</v>
       </c>
       <c r="G10">
-        <f>_xll.TA_TYPPRICE(D10,E10,F10)</f>
         <v>882.30000000000007</v>
       </c>
       <c r="H10">
@@ -1729,7 +1720,6 @@
         <v>930</v>
       </c>
       <c r="G11">
-        <f>_xll.TA_TYPPRICE(D11,E11,F11)</f>
         <v>924.68333333333339</v>
       </c>
       <c r="H11">
@@ -1854,7 +1844,6 @@
         <v>958</v>
       </c>
       <c r="G12">
-        <f>_xll.TA_TYPPRICE(D12,E12,F12)</f>
         <v>956.06666666666661</v>
       </c>
       <c r="H12">
@@ -1979,7 +1968,6 @@
         <v>931</v>
       </c>
       <c r="G13">
-        <f>_xll.TA_TYPPRICE(D13,E13,F13)</f>
         <v>941.15</v>
       </c>
       <c r="H13">
@@ -2104,7 +2092,6 @@
         <v>916</v>
       </c>
       <c r="G14">
-        <f>_xll.TA_TYPPRICE(D14,E14,F14)</f>
         <v>921.80000000000007</v>
       </c>
       <c r="H14">
@@ -2229,7 +2216,6 @@
         <v>889</v>
       </c>
       <c r="G15">
-        <f>_xll.TA_TYPPRICE(D15,E15,F15)</f>
         <v>899.66666666666663</v>
       </c>
       <c r="H15">
@@ -2354,7 +2340,6 @@
         <v>859</v>
       </c>
       <c r="G16">
-        <f>_xll.TA_TYPPRICE(D16,E16,F16)</f>
         <v>871</v>
       </c>
       <c r="H16">
@@ -2479,7 +2464,6 @@
         <v>854</v>
       </c>
       <c r="G17">
-        <f>_xll.TA_TYPPRICE(D17,E17,F17)</f>
         <v>841.26666666666677</v>
       </c>
       <c r="H17">
@@ -2604,7 +2588,6 @@
         <v>823</v>
       </c>
       <c r="G18">
-        <f>_xll.TA_TYPPRICE(D18,E18,F18)</f>
         <v>835.75</v>
       </c>
       <c r="H18">
@@ -2729,7 +2712,6 @@
         <v>820</v>
       </c>
       <c r="G19">
-        <f>_xll.TA_TYPPRICE(D19,E19,F19)</f>
         <v>824.9666666666667</v>
       </c>
       <c r="H19">
@@ -2854,7 +2836,6 @@
         <v>825</v>
       </c>
       <c r="G20">
-        <f>_xll.TA_TYPPRICE(D20,E20,F20)</f>
         <v>827.35</v>
       </c>
       <c r="H20">
@@ -2979,7 +2960,6 @@
         <v>842</v>
       </c>
       <c r="G21">
-        <f>_xll.TA_TYPPRICE(D21,E21,F21)</f>
         <v>867.4666666666667</v>
       </c>
       <c r="H21">
@@ -3104,7 +3084,6 @@
         <v>876</v>
       </c>
       <c r="G22">
-        <f>_xll.TA_TYPPRICE(D22,E22,F22)</f>
         <v>862.5</v>
       </c>
       <c r="H22">
@@ -3229,7 +3208,6 @@
         <v>878</v>
       </c>
       <c r="G23">
-        <f>_xll.TA_TYPPRICE(D23,E23,F23)</f>
         <v>880.9666666666667</v>
       </c>
       <c r="H23">
@@ -3354,7 +3332,6 @@
         <v>870</v>
       </c>
       <c r="G24">
-        <f>_xll.TA_TYPPRICE(D24,E24,F24)</f>
         <v>878.30000000000007</v>
       </c>
       <c r="H24">
@@ -3479,7 +3456,6 @@
         <v>904</v>
       </c>
       <c r="G25">
-        <f>_xll.TA_TYPPRICE(D25,E25,F25)</f>
         <v>889.83333333333337</v>
       </c>
       <c r="H25">
@@ -3604,7 +3580,6 @@
         <v>886</v>
       </c>
       <c r="G26">
-        <f>_xll.TA_TYPPRICE(D26,E26,F26)</f>
         <v>891.9666666666667</v>
       </c>
       <c r="H26">
@@ -3729,7 +3704,6 @@
         <v>895</v>
       </c>
       <c r="G27">
-        <f>_xll.TA_TYPPRICE(D27,E27,F27)</f>
         <v>890.08333333333337</v>
       </c>
       <c r="H27">
@@ -3854,7 +3828,6 @@
         <v>887</v>
       </c>
       <c r="G28">
-        <f>_xll.TA_TYPPRICE(D28,E28,F28)</f>
         <v>888.5333333333333</v>
       </c>
       <c r="H28">
@@ -3979,7 +3952,6 @@
         <v>893</v>
       </c>
       <c r="G29">
-        <f>_xll.TA_TYPPRICE(D29,E29,F29)</f>
         <v>895.5</v>
       </c>
       <c r="H29">
@@ -4104,7 +4076,6 @@
         <v>906</v>
       </c>
       <c r="G30">
-        <f>_xll.TA_TYPPRICE(D30,E30,F30)</f>
         <v>899.73333333333323</v>
       </c>
       <c r="H30">
@@ -4229,7 +4200,6 @@
         <v>864</v>
       </c>
       <c r="G31">
-        <f>_xll.TA_TYPPRICE(D31,E31,F31)</f>
         <v>876.4666666666667</v>
       </c>
       <c r="H31">
@@ -4354,7 +4324,6 @@
         <v>874</v>
       </c>
       <c r="G32">
-        <f>_xll.TA_TYPPRICE(D32,E32,F32)</f>
         <v>875.4666666666667</v>
       </c>
       <c r="H32">
@@ -4479,7 +4448,6 @@
         <v>879</v>
       </c>
       <c r="G33">
-        <f>_xll.TA_TYPPRICE(D33,E33,F33)</f>
         <v>879.93333333333339</v>
       </c>
       <c r="H33">
@@ -4604,7 +4572,6 @@
         <v>935</v>
       </c>
       <c r="G34">
-        <f>_xll.TA_TYPPRICE(D34,E34,F34)</f>
         <v>949.25</v>
       </c>
       <c r="H34">
@@ -4729,7 +4696,6 @@
         <v>912</v>
       </c>
       <c r="G35">
-        <f>_xll.TA_TYPPRICE(D35,E35,F35)</f>
         <v>919.85</v>
       </c>
       <c r="H35">
@@ -4854,7 +4820,6 @@
         <v>952</v>
       </c>
       <c r="G36">
-        <f>_xll.TA_TYPPRICE(D36,E36,F36)</f>
         <v>939</v>
       </c>
       <c r="H36">
@@ -4979,7 +4944,6 @@
         <v>965</v>
       </c>
       <c r="G37">
-        <f>_xll.TA_TYPPRICE(D37,E37,F37)</f>
         <v>963.81666666666661</v>
       </c>
       <c r="H37">
@@ -5104,7 +5068,6 @@
         <v>942</v>
       </c>
       <c r="G38">
-        <f>_xll.TA_TYPPRICE(D38,E38,F38)</f>
         <v>949.63333333333333</v>
       </c>
       <c r="H38">
@@ -5229,7 +5192,6 @@
         <v>937</v>
       </c>
       <c r="G39">
-        <f>_xll.TA_TYPPRICE(D39,E39,F39)</f>
         <v>943.43333333333339</v>
       </c>
       <c r="H39">
@@ -5354,7 +5316,6 @@
         <v>921</v>
       </c>
       <c r="G40">
-        <f>_xll.TA_TYPPRICE(D40,E40,F40)</f>
         <v>926.98333333333323</v>
       </c>
       <c r="H40">
@@ -5479,7 +5440,6 @@
         <v>887</v>
       </c>
       <c r="G41">
-        <f>_xll.TA_TYPPRICE(D41,E41,F41)</f>
         <v>901.6</v>
       </c>
       <c r="H41">
@@ -5604,7 +5564,6 @@
         <v>890</v>
       </c>
       <c r="G42">
-        <f>_xll.TA_TYPPRICE(D42,E42,F42)</f>
         <v>887.26666666666677</v>
       </c>
       <c r="H42">
@@ -5729,7 +5688,6 @@
         <v>906</v>
       </c>
       <c r="G43">
-        <f>_xll.TA_TYPPRICE(D43,E43,F43)</f>
         <v>903.4666666666667</v>
       </c>
       <c r="H43">
@@ -5854,7 +5812,6 @@
         <v>920</v>
       </c>
       <c r="G44">
-        <f>_xll.TA_TYPPRICE(D44,E44,F44)</f>
         <v>902.26666666666677</v>
       </c>
       <c r="H44">
@@ -5979,7 +5936,6 @@
         <v>943</v>
       </c>
       <c r="G45">
-        <f>_xll.TA_TYPPRICE(D45,E45,F45)</f>
         <v>928.88333333333333</v>
       </c>
       <c r="H45">
@@ -6104,7 +6060,6 @@
         <v>930</v>
       </c>
       <c r="G46">
-        <f>_xll.TA_TYPPRICE(D46,E46,F46)</f>
         <v>932.66666666666663</v>
       </c>
       <c r="H46">
@@ -6229,7 +6184,6 @@
         <v>912</v>
       </c>
       <c r="G47">
-        <f>_xll.TA_TYPPRICE(D47,E47,F47)</f>
         <v>919.66666666666663</v>
       </c>
       <c r="H47">
@@ -6354,7 +6308,6 @@
         <v>916</v>
       </c>
       <c r="G48">
-        <f>_xll.TA_TYPPRICE(D48,E48,F48)</f>
         <v>919.7833333333333</v>
       </c>
       <c r="H48">
@@ -6479,7 +6432,6 @@
         <v>929</v>
       </c>
       <c r="G49">
-        <f>_xll.TA_TYPPRICE(D49,E49,F49)</f>
         <v>925.75</v>
       </c>
       <c r="H49">
@@ -6604,7 +6556,6 @@
         <v>937</v>
       </c>
       <c r="G50">
-        <f>_xll.TA_TYPPRICE(D50,E50,F50)</f>
         <v>934.66666666666663</v>
       </c>
       <c r="H50">
@@ -6729,7 +6680,6 @@
         <v>945</v>
       </c>
       <c r="G51">
-        <f>_xll.TA_TYPPRICE(D51,E51,F51)</f>
         <v>943.7166666666667</v>
       </c>
       <c r="H51">
@@ -6854,7 +6804,6 @@
         <v>974</v>
       </c>
       <c r="G52">
-        <f>_xll.TA_TYPPRICE(D52,E52,F52)</f>
         <v>963.43333333333339</v>
       </c>
       <c r="H52">
@@ -6979,7 +6928,6 @@
         <v>990</v>
       </c>
       <c r="G53">
-        <f>_xll.TA_TYPPRICE(D53,E53,F53)</f>
         <v>984.75</v>
       </c>
       <c r="H53">
@@ -7104,7 +7052,6 @@
         <v>984</v>
       </c>
       <c r="G54">
-        <f>_xll.TA_TYPPRICE(D54,E54,F54)</f>
         <v>987.91666666666663</v>
       </c>
       <c r="H54">
@@ -7229,7 +7176,6 @@
         <v>976</v>
       </c>
       <c r="G55">
-        <f>_xll.TA_TYPPRICE(D55,E55,F55)</f>
         <v>981.33333333333337</v>
       </c>
       <c r="H55">
@@ -7354,7 +7300,6 @@
         <v>980</v>
       </c>
       <c r="G56">
-        <f>_xll.TA_TYPPRICE(D56,E56,F56)</f>
         <v>976.43333333333339</v>
       </c>
       <c r="H56">
@@ -7479,7 +7424,6 @@
         <v>986</v>
       </c>
       <c r="G57">
-        <f>_xll.TA_TYPPRICE(D57,E57,F57)</f>
         <v>984.83333333333337</v>
       </c>
       <c r="H57">
@@ -7600,7 +7544,6 @@
         <v>980</v>
       </c>
       <c r="G58">
-        <f>_xll.TA_TYPPRICE(D58,E58,F58)</f>
         <v>986.13333333333333</v>
       </c>
       <c r="H58">
@@ -7721,7 +7664,6 @@
         <v>968</v>
       </c>
       <c r="G59">
-        <f>_xll.TA_TYPPRICE(D59,E59,F59)</f>
         <v>973.66666666666663</v>
       </c>
       <c r="H59">
@@ -7842,7 +7784,6 @@
         <v>966</v>
       </c>
       <c r="G60">
-        <f>_xll.TA_TYPPRICE(D60,E60,F60)</f>
         <v>970.35</v>
       </c>
       <c r="H60">
@@ -7963,7 +7904,6 @@
         <v>977</v>
       </c>
       <c r="G61">
-        <f>_xll.TA_TYPPRICE(D61,E61,F61)</f>
         <v>972.33333333333337</v>
       </c>
       <c r="H61">
@@ -8084,7 +8024,6 @@
         <v>986</v>
       </c>
       <c r="G62">
-        <f>_xll.TA_TYPPRICE(D62,E62,F62)</f>
         <v>983.43333333333339</v>
       </c>
       <c r="H62">
@@ -8205,7 +8144,6 @@
         <v>985</v>
       </c>
       <c r="G63">
-        <f>_xll.TA_TYPPRICE(D63,E63,F63)</f>
         <v>986.83333333333337</v>
       </c>
       <c r="H63">
@@ -8326,7 +8264,6 @@
         <v>990</v>
       </c>
       <c r="G64">
-        <f>_xll.TA_TYPPRICE(D64,E64,F64)</f>
         <v>983.85</v>
       </c>
       <c r="H64">
@@ -8447,7 +8384,6 @@
         <v>968.05</v>
       </c>
       <c r="G65">
-        <f>_xll.TA_TYPPRICE(D65,E65,F65)</f>
         <v>972.9</v>
       </c>
       <c r="H65">
@@ -8568,7 +8504,6 @@
         <v>953</v>
       </c>
       <c r="G66">
-        <f>_xll.TA_TYPPRICE(D66,E66,F66)</f>
         <v>962.26666666666677</v>
       </c>
       <c r="H66">
@@ -8689,14 +8624,13 @@
         <v>929</v>
       </c>
       <c r="G67">
-        <f>_xll.TA_TYPPRICE(D67,E67,F67)</f>
         <v>936.85</v>
       </c>
       <c r="H67">
         <v>953.50936918981165</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8640,42 @@
         <v>955.39105018090243</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>18.170855323628203</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>2</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>27.549999999999955</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>7.2595281306715179E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8685,42 @@
         <v>954.61723122428623</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>9.5681506560996468</v>
       </c>
       <c r="Y67">
         <v>15.943069516090935</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>DOWN</v>
       </c>
       <c r="AD67">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>951.40000000000009</v>
       </c>
       <c r="AE67">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>944.05000000000007</v>
       </c>
       <c r="AF67">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>940.80000000000007</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>937.5</v>
       </c>
     </row>
@@ -8810,7 +8744,6 @@
         <v>919</v>
       </c>
       <c r="G68">
-        <f>_xll.TA_TYPPRICE(D68,E68,F68)</f>
         <v>927.88333333333333</v>
       </c>
       <c r="H68">
@@ -8931,7 +8864,6 @@
         <v>922.95</v>
       </c>
       <c r="G69">
-        <f>_xll.TA_TYPPRICE(D69,E69,F69)</f>
         <v>922.25</v>
       </c>
       <c r="H69">
@@ -9052,7 +8984,6 @@
         <v>938</v>
       </c>
       <c r="G70">
-        <f>_xll.TA_TYPPRICE(D70,E70,F70)</f>
         <v>932.19999999999993</v>
       </c>
       <c r="H70">
@@ -9173,7 +9104,6 @@
         <v>952</v>
       </c>
       <c r="G71">
-        <f>_xll.TA_TYPPRICE(D71,E71,F71)</f>
         <v>944.33333333333337</v>
       </c>
       <c r="H71">
@@ -9294,7 +9224,6 @@
         <v>926</v>
       </c>
       <c r="G72">
-        <f>_xll.TA_TYPPRICE(D72,E72,F72)</f>
         <v>932.0333333333333</v>
       </c>
       <c r="H72">
@@ -9415,7 +9344,6 @@
         <v>906.1</v>
       </c>
       <c r="G73">
-        <f>_xll.TA_TYPPRICE(D73,E73,F73)</f>
         <v>907.65</v>
       </c>
       <c r="H73">
@@ -9536,7 +9464,6 @@
         <v>865</v>
       </c>
       <c r="G74">
-        <f>_xll.TA_TYPPRICE(D74,E74,F74)</f>
         <v>874.69999999999993</v>
       </c>
       <c r="H74">
@@ -9657,7 +9584,6 @@
         <v>875</v>
       </c>
       <c r="G75">
-        <f>_xll.TA_TYPPRICE(D75,E75,F75)</f>
         <v>869.01666666666677</v>
       </c>
       <c r="H75">
@@ -9778,7 +9704,6 @@
         <v>875</v>
       </c>
       <c r="G76">
-        <f>_xll.TA_TYPPRICE(D76,E76,F76)</f>
         <v>875.18333333333339</v>
       </c>
       <c r="H76">
@@ -9899,7 +9824,6 @@
         <v>857</v>
       </c>
       <c r="G77">
-        <f>_xll.TA_TYPPRICE(D77,E77,F77)</f>
         <v>863.98333333333323</v>
       </c>
       <c r="H77">
@@ -10020,7 +9944,6 @@
         <v>862</v>
       </c>
       <c r="G78">
-        <f>_xll.TA_TYPPRICE(D78,E78,F78)</f>
         <v>861.41666666666663</v>
       </c>
       <c r="H78">
@@ -10141,7 +10064,6 @@
         <v>865</v>
       </c>
       <c r="G79">
-        <f>_xll.TA_TYPPRICE(D79,E79,F79)</f>
         <v>865.80000000000007</v>
       </c>
       <c r="H79">
@@ -10262,7 +10184,6 @@
         <v>855.2</v>
       </c>
       <c r="G80">
-        <f>_xll.TA_TYPPRICE(D80,E80,F80)</f>
         <v>861.4666666666667</v>
       </c>
       <c r="H80">
@@ -10383,7 +10304,6 @@
         <v>854.75</v>
       </c>
       <c r="G81">
-        <f>_xll.TA_TYPPRICE(D81,E81,F81)</f>
         <v>858.0333333333333</v>
       </c>
       <c r="H81">
@@ -10504,7 +10424,6 @@
         <v>840.1</v>
       </c>
       <c r="G82">
-        <f>_xll.TA_TYPPRICE(D82,E82,F82)</f>
         <v>847.58333333333337</v>
       </c>
       <c r="H82">
@@ -10606,141 +10525,3055 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>845</v>
+      </c>
+      <c r="D83">
+        <v>849.7</v>
+      </c>
+      <c r="E83">
+        <v>832.05</v>
+      </c>
+      <c r="F83">
+        <v>840.5</v>
+      </c>
+      <c r="G83">
+        <v>840.75</v>
+      </c>
+      <c r="H83">
+        <v>847.50236449232773</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>873.67105046845552</v>
+      </c>
+      <c r="K83">
+        <v>852.21473599655769</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N83">
+        <v>17.78187678760349</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>8.4500000000000455</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>17.650000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.47875354107648738</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>870.33087690365039</v>
+      </c>
+      <c r="W83">
+        <v>897.33429503944171</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-27.003418135791321</v>
+      </c>
+      <c r="Y83">
+        <v>-20.374521125819438</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>840</v>
+      </c>
+      <c r="D84">
+        <v>843.8</v>
+      </c>
+      <c r="E84">
+        <v>821.05</v>
+      </c>
+      <c r="F84">
+        <v>821.6</v>
+      </c>
+      <c r="G84">
+        <v>828.81666666666661</v>
+      </c>
+      <c r="H84">
+        <v>838.15951557949711</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>867.03303925324315</v>
+      </c>
+      <c r="K84">
+        <v>845.28923910843378</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>11.259973340636044</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.55000000000006821</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>22.75</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>2.4175824175827174E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>862.83381891847341</v>
+      </c>
+      <c r="W84">
+        <v>891.72434725874234</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-28.890528340268929</v>
+      </c>
+      <c r="Y84">
+        <v>-22.077722568709337</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD84">
+        <f t="shared" si="35"/>
+        <v>841.2</v>
+      </c>
+      <c r="AE84">
+        <f t="shared" si="36"/>
+        <v>835.1</v>
+      </c>
+      <c r="AF84">
+        <f t="shared" si="37"/>
+        <v>832.40000000000009</v>
+      </c>
+      <c r="AG84">
+        <f t="shared" si="38"/>
+        <v>829.75</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>836.95</v>
+      </c>
+      <c r="D85">
+        <v>847.5</v>
+      </c>
+      <c r="E85">
+        <v>823.8</v>
+      </c>
+      <c r="F85">
+        <v>847.5</v>
+      </c>
+      <c r="G85">
+        <v>839.6</v>
+      </c>
+      <c r="H85">
+        <v>838.87975778974851</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>862.69236386363355</v>
+      </c>
+      <c r="K85">
+        <v>840.51385263989289</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>45.500346177692158</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>23.700000000000045</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>23.700000000000045</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>860.47476985409287</v>
+      </c>
+      <c r="W85">
+        <v>888.44846968402067</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-27.973699829927796</v>
+      </c>
+      <c r="Y85">
+        <v>-23.25691802095303</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>849.95</v>
+      </c>
+      <c r="D86">
+        <v>878.85</v>
+      </c>
+      <c r="E86">
+        <v>838</v>
+      </c>
+      <c r="F86">
+        <v>875.1</v>
+      </c>
+      <c r="G86">
+        <v>863.98333333333323</v>
+      </c>
+      <c r="H86">
+        <v>851.43154556154082</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>866.28294967171496</v>
+      </c>
+      <c r="K86">
+        <v>839.95521871991673</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>64.002171170182123</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>37.100000000000023</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>40.850000000000023</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.90820073439412485</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>862.72480526115555</v>
+      </c>
+      <c r="W86">
+        <v>887.45969415187096</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-24.734888890715411</v>
+      </c>
+      <c r="Y86">
+        <v>-23.552512194905507</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>866</v>
+      </c>
+      <c r="D87">
+        <v>889</v>
+      </c>
+      <c r="E87">
+        <v>861.4</v>
+      </c>
+      <c r="F87">
+        <v>879.9</v>
+      </c>
+      <c r="G87">
+        <v>876.76666666666677</v>
+      </c>
+      <c r="H87">
+        <v>864.09910611410373</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>871.33118307800055</v>
+      </c>
+      <c r="K87">
+        <v>844.72072567104635</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>66.47626089420595</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>18.5</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>27.600000000000023</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.67028985507246319</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>865.36714291328542</v>
+      </c>
+      <c r="W87">
+        <v>886.89971680728797</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-21.532573894002553</v>
+      </c>
+      <c r="Y87">
+        <v>-23.148524534724917</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>885</v>
+      </c>
+      <c r="D88">
+        <v>892</v>
+      </c>
+      <c r="E88">
+        <v>845</v>
+      </c>
+      <c r="F88">
+        <v>851.05</v>
+      </c>
+      <c r="G88">
+        <v>862.68333333333339</v>
+      </c>
+      <c r="H88">
+        <v>863.39121972371856</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>875.92425350511155</v>
+      </c>
+      <c r="K88">
+        <v>844.78278663303604</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>43.839326762955174</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>6.0499999999999545</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>47</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.12872340425531817</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>863.16450554201072</v>
+      </c>
+      <c r="W88">
+        <v>884.24418222897032</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-21.079676686959601</v>
+      </c>
+      <c r="Y88">
+        <v>-22.734754965171852</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>854.15</v>
+      </c>
+      <c r="D89">
+        <v>871</v>
+      </c>
+      <c r="E89">
+        <v>842.1</v>
+      </c>
+      <c r="F89">
+        <v>844.8</v>
+      </c>
+      <c r="G89">
+        <v>852.63333333333321</v>
+      </c>
+      <c r="H89">
+        <v>858.01227652852594</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>874.82997494842004</v>
+      </c>
+      <c r="K89">
+        <v>844.18661182569474</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>40.138050426411937</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>2.6999999999999318</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>28.899999999999977</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>9.3425605536329892E-2</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>860.33919699708599</v>
+      </c>
+      <c r="W89">
+        <v>881.32239095275031</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-20.983193955664319</v>
+      </c>
+      <c r="Y89">
+        <v>-22.384442763270346</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>840</v>
+      </c>
+      <c r="D90">
+        <v>849.15</v>
+      </c>
+      <c r="E90">
+        <v>835</v>
+      </c>
+      <c r="F90">
+        <v>840</v>
+      </c>
+      <c r="G90">
+        <v>841.38333333333333</v>
+      </c>
+      <c r="H90">
+        <v>849.69780493092958</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>869.12331384877109</v>
+      </c>
+      <c r="K90">
+        <v>842.14514253109587</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>37.128726610083454</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>14.149999999999977</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.35335689045936453</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>857.21008976676512</v>
+      </c>
+      <c r="W90">
+        <v>878.26147310439842</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-21.051383337633297</v>
+      </c>
+      <c r="Y90">
+        <v>-22.117830878142936</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>843</v>
+      </c>
+      <c r="D91">
+        <v>862.6</v>
+      </c>
+      <c r="E91">
+        <v>837.7</v>
+      </c>
+      <c r="F91">
+        <v>838</v>
+      </c>
+      <c r="G91">
+        <v>846.1</v>
+      </c>
+      <c r="H91">
+        <v>847.89890246546474</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>867.67368854904419</v>
+      </c>
+      <c r="K91">
+        <v>841.15733307974119</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>35.733369438768882</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.29999999999995453</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>24.899999999999977</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>1.2048192771082522E-2</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V91">
+        <v>854.25469134110892</v>
+      </c>
+      <c r="W91">
+        <v>875.27914176333184</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-21.024450422222912</v>
+      </c>
+      <c r="Y91">
+        <v>-21.899154786958931</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>846.05</v>
+      </c>
+      <c r="D92">
+        <v>868.85</v>
+      </c>
+      <c r="E92">
+        <v>842</v>
+      </c>
+      <c r="F92">
+        <v>859.75</v>
+      </c>
+      <c r="G92">
+        <v>856.86666666666667</v>
+      </c>
+      <c r="H92">
+        <v>852.38278456606577</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>867.93509109370109</v>
+      </c>
+      <c r="K92">
+        <v>841.34459239535431</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>57.463964615030839</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>17.75</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>26.850000000000023</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.66108007448789519</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>855.10012344247673</v>
+      </c>
+      <c r="W92">
+        <v>874.12883496604798</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-19.028711523571246</v>
+      </c>
+      <c r="Y92">
+        <v>-21.325066134281393</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>865.95</v>
+      </c>
+      <c r="D93">
+        <v>868</v>
+      </c>
+      <c r="E93">
+        <v>850</v>
+      </c>
+      <c r="F93">
+        <v>854.3</v>
+      </c>
+      <c r="G93">
+        <v>857.43333333333339</v>
+      </c>
+      <c r="H93">
+        <v>854.90805894969958</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>867.94951529510081</v>
+      </c>
+      <c r="K93">
+        <v>843.26801630749776</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>51.960838161507908</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>4.2999999999999545</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>18</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.23888888888888637</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>854.97702752824955</v>
+      </c>
+      <c r="W93">
+        <v>872.66003237597033</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-17.683004847720781</v>
+      </c>
+      <c r="Y93">
+        <v>-20.59665387696927</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>859.95</v>
+      </c>
+      <c r="D94">
+        <v>868.6</v>
+      </c>
+      <c r="E94">
+        <v>852</v>
+      </c>
+      <c r="F94">
+        <v>858.75</v>
+      </c>
+      <c r="G94">
+        <v>859.7833333333333</v>
+      </c>
+      <c r="H94">
+        <v>857.34569614151644</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>868.0940674517451</v>
+      </c>
+      <c r="K94">
+        <v>845.20845712805385</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>56.23825934695347</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>6.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>16.600000000000023</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.40662650602409584</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>855.55748483159573</v>
+      </c>
+      <c r="W94">
+        <v>871.62965960737995</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-16.072174775784219</v>
+      </c>
+      <c r="Y94">
+        <v>-19.691758056732262</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>867.9</v>
+      </c>
+      <c r="D95">
+        <v>867.9</v>
+      </c>
+      <c r="E95">
+        <v>844</v>
+      </c>
+      <c r="F95">
+        <v>844.95</v>
+      </c>
+      <c r="G95">
+        <v>852.28333333333342</v>
+      </c>
+      <c r="H95">
+        <v>854.81451473742493</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>868.05094135135732</v>
+      </c>
+      <c r="K95">
+        <v>844.93991109959745</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>41.807976806675711</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.95000000000004547</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>23.899999999999977</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>3.974895397489734E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>853.92556408827329</v>
+      </c>
+      <c r="W95">
+        <v>869.65338852535183</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-15.727824437078539</v>
+      </c>
+      <c r="Y95">
+        <v>-18.898971332801516</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="1"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="1"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="1"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="1"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="1"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="1"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="1"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="1"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="1"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="1"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="1"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="1"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="1"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="1"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>859</v>
+      </c>
+      <c r="D96">
+        <v>859</v>
+      </c>
+      <c r="E96">
+        <v>844</v>
+      </c>
+      <c r="F96">
+        <v>848</v>
+      </c>
+      <c r="G96">
+        <v>850.33333333333337</v>
+      </c>
+      <c r="H96">
+        <v>852.57392403537915</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>866.03962105105575</v>
+      </c>
+      <c r="K96">
+        <v>844.73104196635359</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>45.66003703101147</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>15</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>853.0139388439236</v>
+      </c>
+      <c r="W96">
+        <v>868.04943381977023</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-15.035494975846632</v>
+      </c>
+      <c r="Y96">
+        <v>-18.12627606141054</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>844.4</v>
+      </c>
+      <c r="D97">
+        <v>885</v>
+      </c>
+      <c r="E97">
+        <v>837.05</v>
+      </c>
+      <c r="F97">
+        <v>874</v>
+      </c>
+      <c r="G97">
+        <v>865.35</v>
+      </c>
+      <c r="H97">
+        <v>858.96196201768953</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>870.25303859526559</v>
+      </c>
+      <c r="K97">
+        <v>843.02414375160834</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>68.135851868957673</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>36.950000000000045</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>47.950000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.77059436913451529</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>856.24256363716609</v>
+      </c>
+      <c r="W97">
+        <v>868.49021649978727</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-12.24765286262118</v>
+      </c>
+      <c r="Y97">
+        <v>-16.950551421652669</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>876</v>
+      </c>
+      <c r="D98">
+        <v>888.8</v>
+      </c>
+      <c r="E98">
+        <v>866.55</v>
+      </c>
+      <c r="F98">
+        <v>874</v>
+      </c>
+      <c r="G98">
+        <v>876.44999999999993</v>
+      </c>
+      <c r="H98">
+        <v>867.70598100884467</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>874.37458557409548</v>
+      </c>
+      <c r="K98">
+        <v>848.25211180680651</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>68.135851868957687</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>7.4500000000000455</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>22.25</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.33483146067415936</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>858.9744769237559</v>
+      </c>
+      <c r="W98">
+        <v>868.89834861091413</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-9.9238716871582255</v>
+      </c>
+      <c r="Y98">
+        <v>-15.54521547475378</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>875</v>
+      </c>
+      <c r="D99">
+        <v>888.8</v>
+      </c>
+      <c r="E99">
+        <v>857</v>
+      </c>
+      <c r="F99">
+        <v>867.8</v>
+      </c>
+      <c r="G99">
+        <v>871.19999999999993</v>
+      </c>
+      <c r="H99">
+        <v>869.45299050442236</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>877.58023322429642</v>
+      </c>
+      <c r="K99">
+        <v>850.19608696084947</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>59.037505356498734</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>10.799999999999955</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>31.799999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.339622641509433</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>860.33224970471656</v>
+      </c>
+      <c r="W99">
+        <v>868.81698945455014</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-8.4847397498335795</v>
+      </c>
+      <c r="Y99">
+        <v>-14.13312032976974</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>869.95</v>
+      </c>
+      <c r="D100">
+        <v>878</v>
+      </c>
+      <c r="E100">
+        <v>862.05</v>
+      </c>
+      <c r="F100">
+        <v>877</v>
+      </c>
+      <c r="G100">
+        <v>872.35</v>
+      </c>
+      <c r="H100">
+        <v>870.90149525221113</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>877.67351473000838</v>
+      </c>
+      <c r="K100">
+        <v>852.8302898584385</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>67.169100014774102</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>14.950000000000045</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>15.950000000000045</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.93730407523510995</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>862.89651898091404</v>
+      </c>
+      <c r="W100">
+        <v>869.42313838384268</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-6.5266194029286453</v>
+      </c>
+      <c r="Y100">
+        <v>-12.611820144401522</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>878.3</v>
+      </c>
+      <c r="D101">
+        <v>885</v>
+      </c>
+      <c r="E101">
+        <v>863.3</v>
+      </c>
+      <c r="F101">
+        <v>873</v>
+      </c>
+      <c r="G101">
+        <v>873.76666666666677</v>
+      </c>
+      <c r="H101">
+        <v>872.33408095943901</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>879.30162256778431</v>
+      </c>
+      <c r="K101">
+        <v>855.15689211211884</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>60.628082198686826</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>9.7000000000000455</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>21.700000000000045</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.44700460829493205</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>864.45090067615808</v>
+      </c>
+      <c r="W101">
+        <v>869.68809109615063</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-5.2371904199925439</v>
+      </c>
+      <c r="Y101">
+        <v>-11.136894199519727</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>886</v>
+      </c>
+      <c r="D102">
+        <v>944.9</v>
+      </c>
+      <c r="E102">
+        <v>885.5</v>
+      </c>
+      <c r="F102">
+        <v>893</v>
+      </c>
+      <c r="G102">
+        <v>907.80000000000007</v>
+      </c>
+      <c r="H102">
+        <v>890.06704047971948</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J102">
+        <v>893.87903977494329</v>
+      </c>
+      <c r="K102">
+        <v>861.89980497609247</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>75.524618301919745</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>7.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>59.399999999999977</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.1262626262626263</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>868.84306980290296</v>
+      </c>
+      <c r="W102">
+        <v>871.4148991631024</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-2.5718293601994446</v>
+      </c>
+      <c r="Y102">
+        <v>-9.4238812316556704</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>891.6</v>
+      </c>
+      <c r="D103">
+        <v>898</v>
+      </c>
+      <c r="E103">
+        <v>852.55</v>
+      </c>
+      <c r="F103">
+        <v>866</v>
+      </c>
+      <c r="G103">
+        <v>872.18333333333339</v>
+      </c>
+      <c r="H103">
+        <v>881.12518690652644</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>894.79480871384476</v>
+      </c>
+      <c r="K103">
+        <v>859.82207053696084</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N103">
+        <v>46.094516302338128</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>13.450000000000045</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>45.450000000000045</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.29592959295929666</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>868.40567444861017</v>
+      </c>
+      <c r="W103">
+        <v>871.0137955213911</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-2.6081210727809321</v>
+      </c>
+      <c r="Y103">
+        <v>-8.060729199880722</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>861</v>
+      </c>
+      <c r="D104">
+        <v>880</v>
+      </c>
+      <c r="E104">
+        <v>861</v>
+      </c>
+      <c r="F104">
+        <v>876.85</v>
+      </c>
+      <c r="G104">
+        <v>872.61666666666667</v>
+      </c>
+      <c r="H104">
+        <v>876.87092678659656</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>891.50707344410148</v>
+      </c>
+      <c r="K104">
+        <v>860.08383263985843</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>54.918718794076369</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>15.850000000000023</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>19</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.83421052631579062</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>869.70480145651629</v>
+      </c>
+      <c r="W104">
+        <v>871.44610696425104</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-1.7413055077347508</v>
+      </c>
+      <c r="Y104">
+        <v>-6.7968444614515278</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>876.85</v>
+      </c>
+      <c r="D105">
+        <v>905</v>
+      </c>
+      <c r="E105">
+        <v>875</v>
+      </c>
+      <c r="F105">
+        <v>875</v>
+      </c>
+      <c r="G105">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>875.2</v>
+      </c>
+      <c r="D106">
+        <v>904</v>
+      </c>
+      <c r="E106">
+        <v>875.2</v>
+      </c>
+      <c r="F106">
+        <v>890.8</v>
+      </c>
+      <c r="G106">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>887.25</v>
+      </c>
+      <c r="D107">
+        <v>900</v>
+      </c>
+      <c r="E107">
+        <v>871.5</v>
+      </c>
+      <c r="F107">
+        <v>889</v>
+      </c>
+      <c r="G107">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" s="1">
+        <v>43011</v>
+      </c>
+      <c r="C108">
+        <v>896.95</v>
+      </c>
+      <c r="D108">
+        <v>896.95</v>
+      </c>
+      <c r="E108">
+        <v>865.3</v>
+      </c>
+      <c r="F108">
+        <v>869</v>
+      </c>
+      <c r="G108">
+        <v>2505</v>
+      </c>
+    </row>
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1">
+        <v>43012</v>
+      </c>
+      <c r="C109">
+        <v>870</v>
+      </c>
+      <c r="D109">
+        <v>881.3</v>
+      </c>
+      <c r="E109">
+        <v>870</v>
+      </c>
+      <c r="F109">
+        <v>878</v>
+      </c>
+      <c r="G109">
+        <v>5525</v>
+      </c>
+    </row>
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="1">
+        <v>43013</v>
+      </c>
+      <c r="C110">
+        <v>878</v>
+      </c>
+      <c r="D110">
+        <v>880.05</v>
+      </c>
+      <c r="E110">
+        <v>866.85</v>
+      </c>
+      <c r="F110">
+        <v>867.5</v>
+      </c>
+      <c r="G110">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" s="1">
+        <v>43014</v>
+      </c>
+      <c r="C111">
+        <v>870</v>
+      </c>
+      <c r="D111">
+        <v>878.3</v>
+      </c>
+      <c r="E111">
+        <v>868.1</v>
+      </c>
+      <c r="F111">
+        <v>871</v>
+      </c>
+      <c r="G111">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" s="1">
+        <v>43017</v>
+      </c>
+      <c r="C112">
+        <v>883.95</v>
+      </c>
+      <c r="D112">
+        <v>883.95</v>
+      </c>
+      <c r="E112">
+        <v>865</v>
+      </c>
+      <c r="F112">
+        <v>879.4</v>
+      </c>
+      <c r="G112">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="1">
+        <v>43018</v>
+      </c>
+      <c r="C113">
+        <v>885</v>
+      </c>
+      <c r="D113">
+        <v>887.05</v>
+      </c>
+      <c r="E113">
+        <v>874</v>
+      </c>
+      <c r="F113">
+        <v>883.9</v>
+      </c>
+      <c r="G113">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1">
+        <v>43019</v>
+      </c>
+      <c r="C114">
+        <v>888</v>
+      </c>
+      <c r="D114">
+        <v>950</v>
+      </c>
+      <c r="E114">
+        <v>886.45</v>
+      </c>
+      <c r="F114">
+        <v>918</v>
+      </c>
+      <c r="G114">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" s="1">
+        <v>43020</v>
+      </c>
+      <c r="C115">
+        <v>925</v>
+      </c>
+      <c r="D115">
+        <v>930</v>
+      </c>
+      <c r="E115">
+        <v>900</v>
+      </c>
+      <c r="F115">
+        <v>905</v>
+      </c>
+      <c r="G115">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="1">
+        <v>43021</v>
+      </c>
+      <c r="C116">
+        <v>909.9</v>
+      </c>
+      <c r="D116">
+        <v>915.05</v>
+      </c>
+      <c r="E116">
+        <v>892</v>
+      </c>
+      <c r="F116">
+        <v>898.75</v>
+      </c>
+      <c r="G116">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="1">
+        <v>43024</v>
+      </c>
+      <c r="C117">
+        <v>905</v>
+      </c>
+      <c r="D117">
+        <v>913</v>
+      </c>
+      <c r="E117">
+        <v>895.05</v>
+      </c>
+      <c r="F117">
+        <v>896.85</v>
+      </c>
+      <c r="G117">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" s="1">
+        <v>43025</v>
+      </c>
+      <c r="C118">
+        <v>900.6</v>
+      </c>
+      <c r="D118">
+        <v>914.8</v>
+      </c>
+      <c r="E118">
+        <v>894</v>
+      </c>
+      <c r="F118">
+        <v>895</v>
+      </c>
+      <c r="G118">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1">
+        <v>43026</v>
+      </c>
+      <c r="C119">
+        <v>904</v>
+      </c>
+      <c r="D119">
+        <v>904</v>
+      </c>
+      <c r="E119">
+        <v>884</v>
+      </c>
+      <c r="F119">
+        <v>884.2</v>
+      </c>
+      <c r="G119">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="1">
+        <v>43027</v>
+      </c>
+      <c r="C120">
+        <v>895</v>
+      </c>
+      <c r="D120">
+        <v>904.9</v>
+      </c>
+      <c r="E120">
+        <v>889.9</v>
+      </c>
+      <c r="F120">
+        <v>898.9</v>
+      </c>
+      <c r="G120">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="1">
+        <v>43031</v>
+      </c>
+      <c r="C121">
+        <v>895</v>
+      </c>
+      <c r="D121">
+        <v>907.15</v>
+      </c>
+      <c r="E121">
+        <v>890.85</v>
+      </c>
+      <c r="F121">
+        <v>891.1</v>
+      </c>
+      <c r="G121">
+        <v>2510</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.25">
